--- a/jpcore-r4/feature/swg45_FamilyMember/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg45_FamilyMember/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-16T13:29:13+00:00</t>
+    <t>2024-10-18T16:40:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
